--- a/Document/4_MeetingMinutes/Weekly_20141013.xlsx
+++ b/Document/4_MeetingMinutes/Weekly_20141013.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$38</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -69,12 +69,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -82,7 +82,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -90,7 +90,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -297,16 +297,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -320,6 +314,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -336,6 +336,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -382,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,9 +422,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,6 +457,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,103 +633,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="28.5">
+    <row r="2" spans="2:11" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="4">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="4">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="2:11" ht="48" customHeight="1">
-      <c r="B14" s="4">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -734,206 +744,218 @@
       <c r="J14" s="14"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="4">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="4"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="4"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="4"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="4"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="4"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="4"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="4"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="4"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="5"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
     <mergeCell ref="C29:K29"/>
     <mergeCell ref="C30:K30"/>
     <mergeCell ref="C23:K23"/>
@@ -942,18 +964,6 @@
     <mergeCell ref="C26:K26"/>
     <mergeCell ref="C27:K27"/>
     <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
@@ -961,24 +971,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
